--- a/informe_ventas.xlsx
+++ b/informe_ventas.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,53 +444,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[{"id": "4", "nombre": "ACAMOL X 1TAB", "cantidad": 3, "precio": null}, {"id": "1580", "nombre": "ZOPICLONA 7.5 X10TAB", "cantidad": 3, "precio": null}]</t>
+          <t>[{"id": "4", "nombre": "ACAMOL X 1TAB", "cantidad": 3, "precio": null}, {"id": "7", "nombre": "ACE BB LANDER X50ML", "cantidad": 1, "precio": null}]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[{"id": "10", "nombre": "ACE REP CAP ARGAN HAPPY X15ML", "cantidad": 5, "precio": null}, {"id": "8", "nombre": "ACE JJ ORIGI X 50 ML", "cantidad": 6, "precio": null}, {"id": "7", "nombre": "ACE BB LANDER X50ML", "cantidad": 9, "precio": null}]</t>
+          <t>[{"nombre": "ACAMOL X 1TAB", "cantidad": 5, "precio": null}]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[{"id": "4", "nombre": "ACAMOL X 1TAB", "cantidad": 3, "precio": null}, {"id": "7", "nombre": "ACE BB LANDER X50ML", "cantidad": 1, "precio": null}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>12</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[{"nombre": "ACAMOL X 1TAB", "cantidad": 5, "precio": null}]</t>
+          <t>[{"nombre": "ACETAMINOFEN FORTE X1TAB", "cantidad": 6, "precio": null}]</t>
         </is>
       </c>
     </row>
